--- a/data/Заявка на оказание работ по ККТ.xlsx
+++ b/data/Заявка на оказание работ по ККТ.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E5" s="37" t="inlineStr">
         <is>
-          <t>Пустой бланк</t>
+          <t>Настройка Контур.Маркета</t>
         </is>
       </c>
       <c r="F5" s="13" t="n"/>

--- a/data/Заявка на оказание работ по ККТ.xlsx
+++ b/data/Заявка на оказание работ по ККТ.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E5" s="37" t="inlineStr">
         <is>
-          <t>Настройка Контур.Маркета</t>
+          <t>Регистрация и фискализация одной единицы ККТ</t>
         </is>
       </c>
       <c r="F5" s="13" t="n"/>
